--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I923"/>
+  <dimension ref="A1:I924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32709,6 +32709,41 @@
         <v>10400</v>
       </c>
     </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E924" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F924" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G924" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H924" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I924" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I924"/>
+  <dimension ref="A1:I925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32744,6 +32744,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E925" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F925" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G925" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H925" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I925" t="n">
+        <v>29900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I925"/>
+  <dimension ref="A1:I926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32779,6 +32779,41 @@
         <v>29900</v>
       </c>
     </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E926" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F926" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G926" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H926" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I926" t="n">
+        <v>46100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I926"/>
+  <dimension ref="A1:I927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32814,6 +32814,41 @@
         <v>46100</v>
       </c>
     </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E927" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F927" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G927" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H927" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I927" t="n">
+        <v>28400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I927"/>
+  <dimension ref="A1:I928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32849,6 +32849,41 @@
         <v>28400</v>
       </c>
     </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E928" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F928" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G928" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H928" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>40300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I928"/>
+  <dimension ref="A1:I929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32884,6 +32884,41 @@
         <v>40300</v>
       </c>
     </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E929" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F929" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G929" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H929" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I929" t="n">
+        <v>43900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I929"/>
+  <dimension ref="A1:I930"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32919,6 +32919,41 @@
         <v>43900</v>
       </c>
     </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E930" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F930" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G930" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H930" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I930" t="n">
+        <v>141600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I930"/>
+  <dimension ref="A1:I931"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32954,6 +32954,41 @@
         <v>141600</v>
       </c>
     </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E931" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F931" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G931" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H931" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I931" t="n">
+        <v>172100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I931"/>
+  <dimension ref="A1:I932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32989,6 +32989,41 @@
         <v>172100</v>
       </c>
     </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E932" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F932" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G932" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H932" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I932" t="n">
+        <v>168400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I932"/>
+  <dimension ref="A1:I933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33024,6 +33024,41 @@
         <v>168400</v>
       </c>
     </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E933" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F933" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G933" t="n">
+        <v>1</v>
+      </c>
+      <c r="H933" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I933" t="n">
+        <v>290800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I933"/>
+  <dimension ref="A1:I934"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33059,6 +33059,41 @@
         <v>290800</v>
       </c>
     </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E934" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F934" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G934" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H934" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I934" t="n">
+        <v>154700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I934"/>
+  <dimension ref="A1:I935"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33094,6 +33094,41 @@
         <v>154700</v>
       </c>
     </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E935" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F935" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G935" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H935" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I935" t="n">
+        <v>118900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I935"/>
+  <dimension ref="A1:I937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33129,6 +33129,76 @@
         <v>118900</v>
       </c>
     </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E936" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F936" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G936" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H936" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I936" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E937" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F937" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G937" t="n">
+        <v>1</v>
+      </c>
+      <c r="H937" t="n">
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>381100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I937"/>
+  <dimension ref="A1:I939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33199,6 +33199,76 @@
         <v>381100</v>
       </c>
     </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E938" t="n">
+        <v>1</v>
+      </c>
+      <c r="F938" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G938" t="n">
+        <v>1</v>
+      </c>
+      <c r="H938" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I938" t="n">
+        <v>73800</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E939" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F939" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G939" t="n">
+        <v>1</v>
+      </c>
+      <c r="H939" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I939" t="n">
+        <v>369800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I939"/>
+  <dimension ref="A1:I940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33269,6 +33269,41 @@
         <v>369800</v>
       </c>
     </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E940" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F940" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G940" t="n">
+        <v>1</v>
+      </c>
+      <c r="H940" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I940" t="n">
+        <v>603400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I940"/>
+  <dimension ref="A1:I941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33304,6 +33304,41 @@
         <v>603400</v>
       </c>
     </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E941" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F941" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G941" t="n">
+        <v>1</v>
+      </c>
+      <c r="H941" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I941" t="n">
+        <v>531500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I941"/>
+  <dimension ref="A1:I942"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33339,6 +33339,41 @@
         <v>531500</v>
       </c>
     </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E942" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F942" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G942" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H942" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I942" t="n">
+        <v>81300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I942"/>
+  <dimension ref="A1:I943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33374,6 +33374,41 @@
         <v>81300</v>
       </c>
     </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E943" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F943" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G943" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H943" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I943" t="n">
+        <v>1000700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I943"/>
+  <dimension ref="A1:I945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33409,6 +33409,76 @@
         <v>1000700</v>
       </c>
     </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E944" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F944" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G944" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H944" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I944" t="n">
+        <v>74100</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E945" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F945" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G945" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H945" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I945" t="n">
+        <v>229600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I945"/>
+  <dimension ref="A1:I946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33479,6 +33479,41 @@
         <v>229600</v>
       </c>
     </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E946" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F946" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G946" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H946" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I946" t="n">
+        <v>432000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I946"/>
+  <dimension ref="A1:I947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33514,6 +33514,41 @@
         <v>432000</v>
       </c>
     </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E947" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F947" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G947" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H947" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I947" t="n">
+        <v>864900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I947"/>
+  <dimension ref="A1:I956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30996,11 +30996,11 @@
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -31014,28 +31014,28 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="F875" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="G875" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H875" t="n">
         <v>1.19</v>
       </c>
-      <c r="H875" t="n">
-        <v>1.23</v>
-      </c>
       <c r="I875" t="n">
-        <v>614600</v>
+        <v>155500</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -31049,28 +31049,28 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="F876" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G876" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="H876" t="n">
         <v>1.2</v>
       </c>
       <c r="I876" t="n">
-        <v>802400</v>
+        <v>358700</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -31084,28 +31084,28 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="F877" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G877" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H877" t="n">
         <v>1.19</v>
       </c>
-      <c r="G877" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="H877" t="n">
-        <v>1.18</v>
-      </c>
       <c r="I877" t="n">
-        <v>966100</v>
+        <v>409600</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -31119,10 +31119,10 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="F878" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G878" t="n">
         <v>1.17</v>
@@ -31131,16 +31131,16 @@
         <v>1.18</v>
       </c>
       <c r="I878" t="n">
-        <v>676900</v>
+        <v>329800</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -31154,28 +31154,28 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="F879" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G879" t="n">
         <v>1.19</v>
       </c>
-      <c r="G879" t="n">
-        <v>1.16</v>
-      </c>
       <c r="H879" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="I879" t="n">
-        <v>336200</v>
+        <v>278300</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -31189,28 +31189,28 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="F880" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G880" t="n">
         <v>1.19</v>
       </c>
-      <c r="G880" t="n">
-        <v>1.16</v>
-      </c>
       <c r="H880" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="I880" t="n">
-        <v>227700</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -31224,28 +31224,28 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="F881" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="G881" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="H881" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="I881" t="n">
-        <v>297700</v>
+        <v>118900</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -31259,28 +31259,28 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="F882" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="G882" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="H882" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="I882" t="n">
-        <v>594100</v>
+        <v>1971000</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -31294,28 +31294,28 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="F883" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="G883" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="H883" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="I883" t="n">
-        <v>355600</v>
+        <v>153400</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -31329,28 +31329,28 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="F884" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G884" t="n">
         <v>1.19</v>
       </c>
-      <c r="G884" t="n">
-        <v>1.18</v>
-      </c>
       <c r="H884" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="I884" t="n">
-        <v>348000</v>
+        <v>614600</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -31364,28 +31364,28 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="F885" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G885" t="n">
         <v>1.19</v>
       </c>
-      <c r="G885" t="n">
-        <v>1.17</v>
-      </c>
       <c r="H885" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I885" t="n">
-        <v>126000</v>
+        <v>802400</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -31399,28 +31399,28 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="F886" t="n">
         <v>1.19</v>
       </c>
       <c r="G886" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H886" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="I886" t="n">
-        <v>338700</v>
+        <v>966100</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -31434,28 +31434,28 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="F887" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G887" t="n">
         <v>1.17</v>
       </c>
       <c r="H887" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="I887" t="n">
-        <v>219100</v>
+        <v>676900</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -31469,28 +31469,28 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="F888" t="n">
         <v>1.19</v>
       </c>
       <c r="G888" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H888" t="n">
         <v>1.17</v>
       </c>
       <c r="I888" t="n">
-        <v>170700</v>
+        <v>336200</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -31504,28 +31504,28 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="F889" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="G889" t="n">
         <v>1.16</v>
       </c>
       <c r="H889" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="I889" t="n">
-        <v>41000</v>
+        <v>227700</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -31539,28 +31539,28 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="F890" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="G890" t="n">
         <v>1.16</v>
       </c>
       <c r="H890" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="I890" t="n">
-        <v>144500</v>
+        <v>297700</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -31574,28 +31574,28 @@
         </is>
       </c>
       <c r="E891" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F891" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G891" t="n">
         <v>1.16</v>
       </c>
-      <c r="F891" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="G891" t="n">
-        <v>1.12</v>
-      </c>
       <c r="H891" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="I891" t="n">
-        <v>251400</v>
+        <v>594100</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -31609,28 +31609,28 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="F892" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="G892" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="H892" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="I892" t="n">
-        <v>700500</v>
+        <v>355600</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -31644,28 +31644,28 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="F893" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="G893" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="H893" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="I893" t="n">
-        <v>493900</v>
+        <v>348000</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -31679,28 +31679,28 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="F894" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="G894" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="H894" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="I894" t="n">
-        <v>189200</v>
+        <v>126000</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -31714,28 +31714,28 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="F895" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="G895" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="H895" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="I895" t="n">
-        <v>177300</v>
+        <v>338700</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -31749,28 +31749,28 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="F896" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="G896" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="H896" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="I896" t="n">
-        <v>369400</v>
+        <v>219100</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -31784,28 +31784,28 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="F897" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="G897" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="H897" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="I897" t="n">
-        <v>1187900</v>
+        <v>170700</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -31819,28 +31819,28 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="F898" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="G898" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="H898" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="I898" t="n">
-        <v>170800</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -31854,28 +31854,28 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="F899" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="G899" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="H899" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="I899" t="n">
-        <v>168200</v>
+        <v>144500</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -31889,28 +31889,28 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="F900" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="G900" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="H900" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="I900" t="n">
-        <v>107500</v>
+        <v>251400</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -31924,10 +31924,10 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F901" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="G901" t="n">
         <v>1.09</v>
@@ -31936,16 +31936,16 @@
         <v>1.11</v>
       </c>
       <c r="I901" t="n">
-        <v>259500</v>
+        <v>700500</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -31959,28 +31959,28 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="F902" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="G902" t="n">
         <v>1.1</v>
       </c>
       <c r="H902" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="I902" t="n">
-        <v>130100</v>
+        <v>493900</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -31994,28 +31994,28 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="F903" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="G903" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="H903" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="I903" t="n">
-        <v>187300</v>
+        <v>189200</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -32029,28 +32029,28 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="F904" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="G904" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="H904" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="I904" t="n">
-        <v>86700</v>
+        <v>177300</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -32064,28 +32064,28 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="F905" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="G905" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="H905" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="I905" t="n">
-        <v>312900</v>
+        <v>369400</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -32099,28 +32099,28 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="F906" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="G906" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="H906" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="I906" t="n">
-        <v>261700</v>
+        <v>1187900</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -32134,28 +32134,28 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="F907" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="G907" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="H907" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="I907" t="n">
-        <v>209000</v>
+        <v>170800</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -32169,28 +32169,28 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="F908" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="G908" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="H908" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="I908" t="n">
-        <v>74400</v>
+        <v>168200</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -32204,28 +32204,28 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="F909" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="G909" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="H909" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="I909" t="n">
-        <v>361500</v>
+        <v>107500</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
@@ -32239,28 +32239,28 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="F910" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="G910" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="H910" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="I910" t="n">
-        <v>328600</v>
+        <v>259500</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -32274,28 +32274,28 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="F911" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="G911" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="H911" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="I911" t="n">
-        <v>412300</v>
+        <v>130100</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -32309,28 +32309,28 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="F912" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="G912" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="H912" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="I912" t="n">
-        <v>295800</v>
+        <v>187300</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -32344,28 +32344,28 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="F913" t="n">
         <v>1.16</v>
       </c>
       <c r="G913" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="H913" t="n">
         <v>1.16</v>
       </c>
       <c r="I913" t="n">
-        <v>313800</v>
+        <v>86700</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -32391,16 +32391,16 @@
         <v>1.15</v>
       </c>
       <c r="I914" t="n">
-        <v>659200</v>
+        <v>312900</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -32417,25 +32417,25 @@
         <v>1.15</v>
       </c>
       <c r="F915" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G915" t="n">
         <v>1.15</v>
       </c>
-      <c r="G915" t="n">
-        <v>1.13</v>
-      </c>
       <c r="H915" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="I915" t="n">
-        <v>133000</v>
+        <v>261700</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -32449,28 +32449,28 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="F916" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="G916" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="H916" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="I916" t="n">
-        <v>615900</v>
+        <v>209000</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -32484,28 +32484,28 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F917" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="G917" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="H917" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="I917" t="n">
-        <v>181200</v>
+        <v>74400</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -32519,28 +32519,28 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="F918" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="G918" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="H918" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="I918" t="n">
-        <v>223100</v>
+        <v>361500</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -32554,28 +32554,28 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="F919" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="G919" t="n">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="H919" t="n">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="I919" t="n">
-        <v>77000</v>
+        <v>328600</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -32589,28 +32589,28 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="F920" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="G920" t="n">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="H920" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="I920" t="n">
-        <v>111200</v>
+        <v>412300</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -32624,28 +32624,28 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="F921" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="G921" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="H921" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="I921" t="n">
-        <v>134500</v>
+        <v>295800</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -32659,28 +32659,28 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="F922" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="G922" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="H922" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="I922" t="n">
-        <v>35000</v>
+        <v>313800</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -32694,28 +32694,28 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="F923" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="G923" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="H923" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="I923" t="n">
-        <v>10400</v>
+        <v>659200</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -32729,28 +32729,28 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="F924" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="G924" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="H924" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="I924" t="n">
-        <v>10000</v>
+        <v>133000</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -32764,28 +32764,28 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="F925" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="G925" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="H925" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="I925" t="n">
-        <v>29900</v>
+        <v>615900</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -32799,28 +32799,28 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="F926" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="G926" t="n">
         <v>1.09</v>
       </c>
       <c r="H926" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="I926" t="n">
-        <v>46100</v>
+        <v>181200</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -32834,28 +32834,28 @@
         </is>
       </c>
       <c r="E927" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F927" t="n">
         <v>1.1</v>
       </c>
-      <c r="F927" t="n">
-        <v>1.11</v>
-      </c>
       <c r="G927" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H927" t="n">
         <v>1.1</v>
       </c>
-      <c r="H927" t="n">
-        <v>1.11</v>
-      </c>
       <c r="I927" t="n">
-        <v>28400</v>
+        <v>223100</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -32869,28 +32869,28 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="F928" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="G928" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="H928" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="I928" t="n">
-        <v>40300</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -32904,28 +32904,28 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="F929" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="G929" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="H929" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="I929" t="n">
-        <v>43900</v>
+        <v>111200</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -32939,28 +32939,28 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="F930" t="n">
         <v>1.11</v>
       </c>
       <c r="G930" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="H930" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="I930" t="n">
-        <v>141600</v>
+        <v>134500</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -32977,25 +32977,25 @@
         <v>1.08</v>
       </c>
       <c r="F931" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="G931" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="H931" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="I931" t="n">
-        <v>172100</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -33009,28 +33009,28 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="F932" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G932" t="n">
         <v>1.09</v>
       </c>
-      <c r="G932" t="n">
-        <v>1.05</v>
-      </c>
       <c r="H932" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="I932" t="n">
-        <v>168400</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -33044,28 +33044,28 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="F933" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="G933" t="n">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="H933" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I933" t="n">
-        <v>290800</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -33079,28 +33079,28 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="F934" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="G934" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="H934" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I934" t="n">
-        <v>154700</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -33114,28 +33114,28 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="F935" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="G935" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="H935" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I935" t="n">
-        <v>118900</v>
+        <v>46100</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -33149,28 +33149,28 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="F936" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="G936" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="H936" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="I936" t="n">
-        <v>25000</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
@@ -33184,28 +33184,28 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="F937" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="G937" t="n">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="H937" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="I937" t="n">
-        <v>381100</v>
+        <v>40300</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -33219,28 +33219,28 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="F938" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="G938" t="n">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="H938" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="I938" t="n">
-        <v>73800</v>
+        <v>43900</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -33254,28 +33254,28 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="F939" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="G939" t="n">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="H939" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="I939" t="n">
-        <v>369800</v>
+        <v>141600</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
@@ -33289,28 +33289,28 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="F940" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="G940" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="H940" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="I940" t="n">
-        <v>603400</v>
+        <v>172100</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -33324,28 +33324,28 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="F941" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G941" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="H941" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="I941" t="n">
-        <v>531500</v>
+        <v>168400</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -33359,28 +33359,28 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="F942" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="G942" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="H942" t="n">
         <v>1.04</v>
       </c>
       <c r="I942" t="n">
-        <v>81300</v>
+        <v>290800</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -33394,28 +33394,28 @@
         </is>
       </c>
       <c r="E943" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F943" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G943" t="n">
         <v>1.02</v>
       </c>
-      <c r="F943" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="G943" t="n">
-        <v>0.98</v>
-      </c>
       <c r="H943" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="I943" t="n">
-        <v>1000700</v>
+        <v>154700</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -33429,28 +33429,28 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>0.965</v>
+        <v>1.04</v>
       </c>
       <c r="F944" t="n">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="G944" t="n">
-        <v>0.955</v>
+        <v>1.03</v>
       </c>
       <c r="H944" t="n">
-        <v>0.965</v>
+        <v>1.04</v>
       </c>
       <c r="I944" t="n">
-        <v>74100</v>
+        <v>118900</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -33464,28 +33464,28 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="F945" t="n">
-        <v>0.965</v>
+        <v>1.05</v>
       </c>
       <c r="G945" t="n">
-        <v>0.95</v>
+        <v>1.03</v>
       </c>
       <c r="H945" t="n">
-        <v>0.95</v>
+        <v>1.03</v>
       </c>
       <c r="I945" t="n">
-        <v>229600</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -33499,53 +33499,368 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>0.945</v>
+        <v>1.03</v>
       </c>
       <c r="F946" t="n">
-        <v>0.945</v>
+        <v>1.03</v>
       </c>
       <c r="G946" t="n">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="H946" t="n">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="I946" t="n">
-        <v>432000</v>
+        <v>381100</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E947" t="n">
+        <v>1</v>
+      </c>
+      <c r="F947" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G947" t="n">
+        <v>1</v>
+      </c>
+      <c r="H947" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I947" t="n">
+        <v>73800</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E948" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F948" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G948" t="n">
+        <v>1</v>
+      </c>
+      <c r="H948" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I948" t="n">
+        <v>369800</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E949" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F949" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G949" t="n">
+        <v>1</v>
+      </c>
+      <c r="H949" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I949" t="n">
+        <v>603400</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E950" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F950" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G950" t="n">
+        <v>1</v>
+      </c>
+      <c r="H950" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I950" t="n">
+        <v>531500</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E951" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F951" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G951" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H951" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I951" t="n">
+        <v>81300</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E952" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F952" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G952" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H952" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I952" t="n">
+        <v>1000700</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E953" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F953" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G953" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H953" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I953" t="n">
+        <v>74100</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E954" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F954" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G954" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H954" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I954" t="n">
+        <v>229600</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E955" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F955" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G955" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H955" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I955" t="n">
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B947" t="inlineStr">
+      <c r="B956" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C947" t="inlineStr">
-        <is>
-          <t>5271</t>
-        </is>
-      </c>
-      <c r="D947" t="inlineStr">
-        <is>
-          <t>PECCA</t>
-        </is>
-      </c>
-      <c r="E947" t="n">
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E956" t="n">
         <v>0.8</v>
       </c>
-      <c r="F947" t="n">
+      <c r="F956" t="n">
         <v>0.8</v>
       </c>
-      <c r="G947" t="n">
+      <c r="G956" t="n">
         <v>0.78</v>
       </c>
-      <c r="H947" t="n">
+      <c r="H956" t="n">
         <v>0.8</v>
       </c>
-      <c r="I947" t="n">
+      <c r="I956" t="n">
         <v>864900</v>
       </c>
     </row>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I956"/>
+  <dimension ref="A1:I957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33864,6 +33864,41 @@
         <v>864900</v>
       </c>
     </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E957" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F957" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G957" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H957" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I957" t="n">
+        <v>181400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I957"/>
+  <dimension ref="A1:I958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33899,6 +33899,41 @@
         <v>181400</v>
       </c>
     </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E958" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F958" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G958" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H958" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I958" t="n">
+        <v>118300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I958"/>
+  <dimension ref="A1:I959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33934,6 +33934,41 @@
         <v>118300</v>
       </c>
     </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E959" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F959" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G959" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H959" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I959" t="n">
+        <v>171700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I959"/>
+  <dimension ref="A1:I960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33969,6 +33969,41 @@
         <v>171700</v>
       </c>
     </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E960" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F960" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G960" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H960" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I960" t="n">
+        <v>235000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I960"/>
+  <dimension ref="A1:I961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34004,6 +34004,41 @@
         <v>235000</v>
       </c>
     </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E961" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F961" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G961" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H961" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I961" t="n">
+        <v>84100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I961"/>
+  <dimension ref="A1:I962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34039,6 +34039,41 @@
         <v>84100</v>
       </c>
     </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E962" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F962" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G962" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H962" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I962" t="n">
+        <v>9700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I962"/>
+  <dimension ref="A1:I963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34074,6 +34074,41 @@
         <v>9700</v>
       </c>
     </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E963" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F963" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G963" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H963" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I963" t="n">
+        <v>112200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I963"/>
+  <dimension ref="A1:I964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34109,6 +34109,41 @@
         <v>112200</v>
       </c>
     </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E964" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F964" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G964" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H964" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I964" t="n">
+        <v>120800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I964"/>
+  <dimension ref="A1:I965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34144,6 +34144,41 @@
         <v>120800</v>
       </c>
     </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E965" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F965" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G965" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H965" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I965" t="n">
+        <v>62700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I965"/>
+  <dimension ref="A1:I966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34179,6 +34179,41 @@
         <v>62700</v>
       </c>
     </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E966" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F966" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G966" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H966" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I966" t="n">
+        <v>132300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I966"/>
+  <dimension ref="A1:I967"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34214,6 +34214,41 @@
         <v>132300</v>
       </c>
     </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E967" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F967" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G967" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H967" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I967" t="n">
+        <v>122800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I967"/>
+  <dimension ref="A1:I968"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34249,6 +34249,41 @@
         <v>122800</v>
       </c>
     </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E968" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F968" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G968" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H968" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I968" t="n">
+        <v>21300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I968"/>
+  <dimension ref="A1:I969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34284,6 +34284,41 @@
         <v>21300</v>
       </c>
     </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E969" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F969" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G969" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H969" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I969" t="n">
+        <v>253300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I969"/>
+  <dimension ref="A1:I970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34319,6 +34319,41 @@
         <v>253300</v>
       </c>
     </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E970" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F970" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G970" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H970" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I970" t="n">
+        <v>49900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I970"/>
+  <dimension ref="A1:I971"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34354,6 +34354,41 @@
         <v>49900</v>
       </c>
     </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E971" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F971" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G971" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H971" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I971" t="n">
+        <v>121500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I971"/>
+  <dimension ref="A1:I972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34389,6 +34389,41 @@
         <v>121500</v>
       </c>
     </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E972" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F972" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G972" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H972" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I972" t="n">
+        <v>52500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I972"/>
+  <dimension ref="A1:I973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34424,6 +34424,41 @@
         <v>52500</v>
       </c>
     </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E973" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F973" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G973" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H973" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I973" t="n">
+        <v>321800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I973"/>
+  <dimension ref="A1:I974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34459,6 +34459,41 @@
         <v>321800</v>
       </c>
     </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E974" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F974" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G974" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H974" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I974" t="n">
+        <v>93100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I974"/>
+  <dimension ref="A1:I975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34494,6 +34494,41 @@
         <v>93100</v>
       </c>
     </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E975" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F975" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G975" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H975" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I975" t="n">
+        <v>230600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I975"/>
+  <dimension ref="A1:I976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34529,6 +34529,41 @@
         <v>230600</v>
       </c>
     </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E976" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F976" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G976" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H976" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I976" t="n">
+        <v>156000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I976"/>
+  <dimension ref="A1:I977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34564,6 +34564,41 @@
         <v>156000</v>
       </c>
     </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E977" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F977" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G977" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H977" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I977" t="n">
+        <v>1203300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I977"/>
+  <dimension ref="A1:I978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34599,6 +34599,41 @@
         <v>1203300</v>
       </c>
     </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E978" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F978" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G978" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H978" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I978" t="n">
+        <v>185900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I978"/>
+  <dimension ref="A1:I979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34634,6 +34634,41 @@
         <v>185900</v>
       </c>
     </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E979" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F979" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G979" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H979" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I979" t="n">
+        <v>1069000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I979"/>
+  <dimension ref="A1:I980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34669,6 +34669,41 @@
         <v>1069000</v>
       </c>
     </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E980" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F980" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G980" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H980" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I980" t="n">
+        <v>378100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I980"/>
+  <dimension ref="A1:I981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34704,6 +34704,41 @@
         <v>378100</v>
       </c>
     </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E981" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F981" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G981" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H981" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I981" t="n">
+        <v>412200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I981"/>
+  <dimension ref="A1:I983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34739,6 +34739,76 @@
         <v>412200</v>
       </c>
     </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E982" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F982" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G982" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H982" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I982" t="n">
+        <v>997300</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E983" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F983" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G983" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H983" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I983" t="n">
+        <v>354200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I983"/>
+  <dimension ref="A1:I984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34809,6 +34809,41 @@
         <v>354200</v>
       </c>
     </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E984" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F984" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G984" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H984" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I984" t="n">
+        <v>52900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I984"/>
+  <dimension ref="A1:I987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34844,6 +34844,111 @@
         <v>52900</v>
       </c>
     </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E985" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F985" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G985" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H985" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I985" t="n">
+        <v>388100</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E986" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F986" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G986" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H986" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I986" t="n">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E987" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F987" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G987" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H987" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I987" t="n">
+        <v>114600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I987"/>
+  <dimension ref="A1:I988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34949,6 +34949,41 @@
         <v>114600</v>
       </c>
     </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E988" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F988" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G988" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H988" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I988" t="n">
+        <v>42000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I988"/>
+  <dimension ref="A1:I989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34984,6 +34984,41 @@
         <v>42000</v>
       </c>
     </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E989" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F989" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G989" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H989" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I989" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5271.xlsx
+++ b/data/5271.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I989"/>
+  <dimension ref="A1:I992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35019,6 +35019,111 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E990" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F990" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G990" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H990" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I990" t="n">
+        <v>370700</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E991" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F991" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G991" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H991" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I991" t="n">
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>PECCA</t>
+        </is>
+      </c>
+      <c r="E992" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F992" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G992" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H992" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I992" t="n">
+        <v>87900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
